--- a/xls/B-背景音乐.xlsx
+++ b/xls/B-背景音乐.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F487A26A-064D-475D-A1AD-5B4E4ED9E772}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CE3456-357D-4890-90FD-22CC1B8523AF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="@背景音乐#Music" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,20 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Des</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景音乐1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景音乐2</t>
-  </si>
-  <si>
-    <t>背景音乐3</t>
-  </si>
-  <si>
     <t>Asset</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,15 +54,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>music1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>music2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>music3</t>
+    <t>UGame/Common/Sounds/BGM/MainBGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主框架背景音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UGame/Common/Sounds/BGM/WhacAMoleBGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打地鼠背景音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂一涂背景音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UGame/Common/Sounds/BGM/ColorItBGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找一找背景音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UGame/Common/Sounds/BGM/ScavengerHuntBGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼一拼背景音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UGame/Common/Sounds/BGM/StorySequencingBGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猜一猜背景音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UGame/Common/Sounds/BGM/MatchUpBGM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,36 +447,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C13" sqref="C12:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="7" max="7" width="40.375" customWidth="1"/>
-    <col min="8" max="8" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="43.875" customWidth="1"/>
+    <col min="5" max="5" width="40.375" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,11 +483,8 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -480,55 +492,73 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>100101</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="str">
-        <f>"这是"&amp;B4</f>
-        <v>这是背景音乐1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>100102</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="str">
-        <f>"这是"&amp;B5</f>
-        <v>这是背景音乐2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>100103</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" ref="C6" si="0">"这是"&amp;B6</f>
-        <v>这是背景音乐3</v>
-      </c>
-      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>100104</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>100105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>100106</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
